--- a/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-12,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-15,22%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 6,25</t>
+          <t>-22,39; -1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 6,5</t>
+          <t>-18,94; 3,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 16,36</t>
+          <t>-10,09; 11,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 44,7</t>
+          <t>-23,65; -1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 40,39</t>
+          <t>-26,79; -2,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 105,07</t>
+          <t>-23,63; 3,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 19,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,82; -2,53</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 8,86</t>
+          <t>-3,82; 19,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 7,89</t>
+          <t>0,52; 24,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 12,86</t>
+          <t>-10,29; 13,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 61,62</t>
+          <t>-9,43; 16,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 54,18</t>
+          <t>-5,74; 34,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 143,19</t>
+          <t>1,65; 44,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,5; 24,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 28,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>21,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-12,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>152,36%</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-14,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 29,9</t>
+          <t>-6,29; 57,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 18,47</t>
+          <t>-20,44; 29,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 15,04</t>
+          <t>-34,23; 9,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 613,49</t>
+          <t>-30,81; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 283,33</t>
+          <t>-9,35; 243,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 174,1</t>
+          <t>-25,49; 56,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-37,44; 12,04</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 7,5</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-8,63%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,44</t>
+          <t>-8,25; 8,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,27</t>
+          <t>-5,43; 9,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 11,39</t>
+          <t>-7,37; 8,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 43,49</t>
+          <t>-14,59; 1,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 39,83</t>
+          <t>-11,1; 12,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 78,8</t>
+          <t>-7,43; 14,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 13,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 2,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,91</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,07</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-15,37%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-10,54%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-15,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.05849237795292</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.724805018124503</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.114496962510247</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-12.06434391009903</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1386465512844831</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.09011688697978902</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01599005656395627</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1523163577781334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,39; -1,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 3,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 11,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; -1,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-26,79; -2,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 3,84</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 19,06</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,82; -2,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.85224922092559</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.43420291196722</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.42289928083558</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-24.13915663111925</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2465331295653942</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2179630324428496</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1394666244949947</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2885963067215513</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.075567356754303</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.167603448632492</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.43365717422098</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-1.793448792788617</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.009341576224546988</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.05772659671133867</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1891249966141146</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.02333812404697986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 19,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 24,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; 13,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 16,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 34,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 44,46</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,5; 24,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 28,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.969556901223575</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.26193169713604</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.820220026536933</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.115443050873756</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.142622608605125</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1933216534094088</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01272582231063486</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.05127824389324937</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>21,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-12,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>43,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-12,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.092130288970024</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4239221911288641</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.1117684401053</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.979524636495384</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.04406828951071649</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.007940444414827634</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1712602032333801</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1358924807508099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 57,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; 29,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-34,23; 9,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,81; 6,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 243,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,49; 56,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-37,44; 12,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,05; 7,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.40594876707407</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.22254896412026</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.79403377006017</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.28054926614206</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4220975761352476</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4418812558797983</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2255260439749985</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3235643977031497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,39</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,63%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>21.81867514847665</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.590252484921123</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-11.01842070794038</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.39814162819772</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4463393565539626</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1084231501260254</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1301558848329559</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1144717518597068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 8,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 9,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 8,59</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 1,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 12,86</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 14,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 13,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 2,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.916370957431509</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.0487513185906</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-32.6107687428638</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-28.99828513739991</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.08618772128979468</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2236593902411916</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3588868953780413</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3034608102291966</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>57.52284984444366</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>31.34325599989373</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.51793159183902</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.29598407488059</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.567632408934658</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6246824097599943</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1399401936497164</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1006442555105554</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.6951442013669262</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.711552672233852</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1207765057444354</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.839653240403441</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.009999533637074016</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03912643828483689</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.001751797229688845</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07981030685787072</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.539079295937112</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.816893001326293</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.873001285583594</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.13193612934768</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1018442002848972</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.06550714118142459</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1064217147421841</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1840999876656245</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.389946488895808</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.17007886964563</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.014293524285986</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.442494802268683</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1487232725170322</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1544484859344048</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1266086682751044</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.03562913499376858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
